--- a/ImmmoWelt_Price_Guide/y_test.xlsx
+++ b/ImmmoWelt_Price_Guide/y_test.xlsx
@@ -374,286 +374,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>138</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:1">
+      <c r="A2">
         <v>1149</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>30</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>119</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:1">
+      <c r="A4">
         <v>554.99</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>29</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:1">
+      <c r="A5">
         <v>484</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>143</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:1">
+      <c r="A6">
         <v>1350</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>162</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:1">
+      <c r="A7">
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>165</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:1">
+      <c r="A8">
         <v>695</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>51</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:1">
+      <c r="A9">
         <v>990</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>105</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:1">
+      <c r="A10">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>60</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:1">
+      <c r="A11">
         <v>1365</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>15</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:1">
+      <c r="A12">
         <v>540</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>157</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:1">
+      <c r="A13">
         <v>950</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>133</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:1">
+      <c r="A14">
         <v>2880</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>45</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:1">
+      <c r="A15">
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>68</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:1">
+      <c r="A16">
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>85</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:1">
+      <c r="A17">
         <v>1550</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>24</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:1">
+      <c r="A18">
         <v>755</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>109</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:1">
+      <c r="A19">
         <v>655</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>75</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:1">
+      <c r="A20">
         <v>2545.6</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>108</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:1">
+      <c r="A21">
         <v>880</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:1">
+      <c r="A22">
         <v>895</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>16</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:1">
+      <c r="A23">
         <v>1280</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>31</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:1">
+      <c r="A24">
         <v>710</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>18</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:1">
+      <c r="A25">
         <v>1050</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>12</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:1">
+      <c r="A26">
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>9</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:1">
+      <c r="A27">
         <v>730</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>82</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:1">
+      <c r="A28">
         <v>1100</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>98</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:1">
+      <c r="A29">
         <v>1230</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>76</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:1">
+      <c r="A30">
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>55</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:1">
+      <c r="A31">
         <v>799</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>42</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:1">
+      <c r="A32">
         <v>990</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>56</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:1">
+      <c r="A33">
         <v>649</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>153</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:1">
+      <c r="A34">
         <v>649</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>111</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:1">
+      <c r="A35">
         <v>520</v>
       </c>
     </row>
